--- a/input/AnalyticsSheets/Dove_AnalyticsSheet.xlsx
+++ b/input/AnalyticsSheets/Dove_AnalyticsSheet.xlsx
@@ -17,14 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>Expected values</t>
   </si>
   <si>
-    <t>ReportSuiteID</t>
-  </si>
-  <si>
     <t>event</t>
   </si>
   <si>
@@ -85,7 +82,7 @@
     <t>11111611641</t>
   </si>
   <si>
-    <t>hit type</t>
+    <t>t</t>
   </si>
 </sst>
 </file>
@@ -289,11 +286,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -335,7 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -707,162 +702,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J13"/>
+  <dimension ref="B3:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:IV12"/>
+      <selection activeCell="I1" activeCellId="3" sqref="D1:D1048576 E1:E1048576 F1:F1048576 I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.85546875" customWidth="1"/>
-    <col min="7" max="7" width="27.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.140625" customWidth="1"/>
-    <col min="10" max="10" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.85546875" customWidth="1"/>
+    <col min="6" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="19" t="s">
+    <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D6" s="17"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" s="12"/>
     </row>
-    <row r="5" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E6" s="18"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13"/>
+    </row>
+    <row r="11" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="C12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="11" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D11" s="9"/>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="C13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="16" t="s">
         <v>19</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
